--- a/pred_ohlcv/54_21/2019-10-28 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 XVG ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>1501846.35073909</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2590250.665339089</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1585251.550038209</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1585251.550038209</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1585251.550038209</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2084540.007938209</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2741808.028838209</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2727169.028838209</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2712518.028838209</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3915566.892338209</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3461670.697038209</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>3633119.281738209</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>3633129.281738209</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3633129.281738209</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>5406887.982038208</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>5578785.954838209</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>5792159.291338209</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>5711649.448338209</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>5711749.448338209</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>5757749.448338209</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>5686752.804838208</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>6113480.262838208</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>6113480.262838208</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>6086895.262838208</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>5897385.216538209</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>5897396.216538209</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>5740370.429838208</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>5740381.429838208</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4817515.454738208</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4817515.454738208</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4817415.454738208</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4817415.454738208</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4478815.003338208</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>4254815.003338208</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>4254915.003338208</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>4019919.656538208</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>4019929.656538208</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>4016929.656538208</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>4016929.656538208</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3974529.919438208</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3974529.919438208</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3974529.919438208</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3974539.919438208</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3974539.919438208</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3974639.919438208</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3974639.919438208</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3974639.919438208</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3721275.608638208</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3728301.333438208</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3728301.333438208</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3817030.427838208</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3817030.427838208</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3817030.427838208</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3817030.427838208</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3926287.293838208</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3926287.293838208</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3947153.293838208</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3947153.293838208</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3947153.293838208</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3947061.293838208</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-28 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 XVG ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>1337883.81053909</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2590250.665339089</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2588814.602839089</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2614567.66683821</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1585251.550038209</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1585251.550038209</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1585251.550038209</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2084540.007938209</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2727169.028838209</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3461670.697038209</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>3633119.281738209</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>3633129.281738209</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3633129.281738209</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>5406887.982038208</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>5792159.291338209</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>5711649.448338209</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>5711749.448338209</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>5757749.448338209</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>5686752.804838208</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>6113480.262838208</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>6113480.262838208</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>6086895.262838208</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>5897385.216538209</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>5897396.216538209</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>5740370.429838208</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>5740381.429838208</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>4944459.880538208</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4944469.880538208</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4817515.454738208</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4817515.454738208</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4817415.454738208</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4817415.454738208</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4478815.003338208</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>4254815.003338208</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>4016929.656538208</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>4016929.656538208</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3974529.919438208</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3974539.919438208</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3974639.919438208</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3974639.919438208</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3947153.293838208</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3947153.293838208</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3947061.293838208</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
